--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/20190430-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/20190430-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1024">
   <si>
     <r>
       <rPr>
@@ -3696,10 +3696,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>额度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>商品</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4363,211 +4359,1775 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>fa fa-cube</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-cube</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户公告</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Notice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticetype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticetype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.companyid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.companyid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.unitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.unitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.userid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.userid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticedate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticedate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticetitle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticetitle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.content</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.content</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.startdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.startdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.enddate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.author</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.author</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice Status </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告标题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Title</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期从</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期至</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTIONNUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSACTIONNUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易编号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEVER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.fullname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eft</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ACCOUNT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ACCOUNT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountMapper.select</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.account</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.account</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.account</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.shortname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accountnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountNumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accountname</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagetemplate.accountid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ORDER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ORDER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderMapper.select</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order.orderstatus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order.ordercode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order.ordercode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order.ordercode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction.orderid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderStatus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnd/notice/query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnd/notice/query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告查询</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.noticedigest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice Digest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fnd/company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/query</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnd/company/query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnd/notice_query.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告查询页面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告查询页面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Notice Query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户查询</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnd/notice_query.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FND1050</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告查询</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice  Query</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnd/company/queryAll</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户查询（全部）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Query All</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/warehouse.html</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/warehouse.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理页面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Manage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告查询</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-archive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Manage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1020</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1020</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-database</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Manage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehousename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehousename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehouselocation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehouselocation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库主键</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库地址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Location</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/purchase.html</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/purchase.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购申请</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Apply</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购申请</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1030</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1030</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-soccer-ball-o</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购申请</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Apply</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Apply</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.purchaseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.purchaseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.purchasecode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.purchasecode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.purchasedate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.unitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.unitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.employeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.employeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.vendorid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.vendorid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.totalamount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.totalamount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.totalnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.totalnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.submitdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.approveddate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.approveddate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.refusedate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.refusedate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单主键</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Mount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批拒绝日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refuse Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>CONSTANT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yyyMMdd</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AY</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE.STATUS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE.STATUS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">采购状态 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFUSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refuse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction.remark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.detailid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.detailid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.modelid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.modelid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.guideprice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.guideprice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.invoiceprice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.invoiceprice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.unitprice</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.itemnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.itemnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.purchasecost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.purchasecost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.trafficinsurance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.trafficinsurance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.commercialinsurance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.commercialinsurance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.deedfax</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasedetail.deedfax</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购明细ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物模型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Cost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交强险</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffici Nsurance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业险</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commercial Nsurance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>契税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deed Fax</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseassign.assignid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseassign.assignid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseassign.assignnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseassign.assignnumber</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseassign.assigndate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseassign.assigndate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购分配ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign Number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/purchase_assign.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购分配</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Assign</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购分配</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1040</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1040</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购分配</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase Assign</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-globe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseMapper.select</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_WAREHOUSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehousename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouse.warehouselocation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>warehouseLocation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/purchase_assign.html</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>item/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>item_allocate.html</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item_allocate.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Allocate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item_stock.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item_stock.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inout Warehours</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inout Warehours</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店登记</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Register</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1050</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1060</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1070</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>到店登记</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>FND1040</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>fa fa-cube</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fa fa-cube</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户公告</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company Notice</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticeid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticeid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticetype</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticetype</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.status</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.status</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.companyid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.companyid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.unitid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.unitid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.userid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.userid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticedate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticedate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticetitle</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.noticetitle</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.content</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.content</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.startdate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.startdate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.enddate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.author</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice.author</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notice Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notice Type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Notice Status </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notice Date</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告标题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notice Title</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期从</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期至</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start Date</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>End Date</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
+    <t>ITEM1050</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1060</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM1070</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-industry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-institution</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-leaf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.allocatecode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.allocatecode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.fromwarehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.fromwarehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.fromunitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.fromemployeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.fromdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.fromdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.towarehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.towarehouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.tounitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.toemployeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.toemployeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.todate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemallocate.todate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.itemid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.itemid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.stocktype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.stocktype</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库人员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库分公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库分公司</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库人员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.stockdate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.stockman</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.stockman</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库人员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Man</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Unitid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Employeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Employeeid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>To WareHouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Unit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>From WareHouseid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allocae Status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allocae Code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLOCATE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLOCATE.STATUS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">调拨状态 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ITEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ITEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemMapper.select</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemstock.itemid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.itemCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK.TYPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK.TYPE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入库类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tem/item_register.html</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item_register.html</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4578,7 +6138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4744,6 +6304,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4882,7 +6450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4982,6 +6550,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5366,11 +6937,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -5379,21 +6950,21 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -5502,11 +7073,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
@@ -5544,19 +7115,19 @@
       <c r="C25" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="34" t="s">
@@ -5584,7 +7155,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5921,10 +7492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:M12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6045,10 +7616,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="E9" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>287</v>
@@ -6057,56 +7628,56 @@
         <v>176</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="E10" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>287</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="L10" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>287</v>
@@ -6118,24 +7689,24 @@
         <v>176</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>600</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>601</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>287</v>
@@ -6147,16 +7718,306 @@
         <v>176</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>603</v>
-      </c>
       <c r="L12" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>603</v>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="E15" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>897</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>923</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -6169,10 +8030,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6233,7 +8094,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>59</v>
@@ -6287,16 +8148,16 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
@@ -6334,16 +8195,16 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
@@ -6384,16 +8245,16 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I10" s="8" t="str">
         <f>RESOURCE!E8</f>
@@ -6429,19 +8290,19 @@
       <c r="A11" s="48"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>464</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I11" s="47"/>
       <c r="J11" s="8" t="s">
@@ -6455,16 +8316,16 @@
         <v>176</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -6475,20 +8336,20 @@
         <v>81</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="I12" s="8" t="str">
         <f>RESOURCE!E9</f>
@@ -6508,37 +8369,37 @@
         <v>176</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="C13" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8">
@@ -6548,16 +8409,16 @@
         <v>176</v>
       </c>
       <c r="N13" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>476</v>
-      </c>
       <c r="Q13" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6568,20 +8429,20 @@
         <v>81</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>478</v>
       </c>
       <c r="I14" s="8" t="str">
         <f>RESOURCE!E10</f>
@@ -6601,16 +8462,16 @@
         <v>176</v>
       </c>
       <c r="N14" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>540</v>
-      </c>
       <c r="Q14" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6621,20 +8482,20 @@
         <v>81</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>548</v>
       </c>
       <c r="I15" s="8" t="str">
         <f>RESOURCE!E11</f>
@@ -6654,16 +8515,16 @@
         <v>176</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6674,20 +8535,20 @@
         <v>81</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>609</v>
       </c>
       <c r="I16" s="8" t="str">
         <f>RESOURCE!E12</f>
@@ -6707,109 +8568,618 @@
         <v>176</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="D17" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9">
+        <v>43598</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>RESOURCE!E14</f>
+        <v>fnd/notice_query.html</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f>E11</f>
+        <v>FND</v>
+      </c>
+      <c r="L17" s="8">
+        <v>50</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="9">
+        <v>43602</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <v>25</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="9">
+        <v>43602</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>RESOURCE!E17</f>
+        <v>item/warehouse.html</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f>E18</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L19" s="8">
+        <v>20</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="9">
+        <v>43602</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>RESOURCE!E18</f>
+        <v>item/purchase.html</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f>E18</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L20" s="8">
+        <v>30</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="9">
+        <v>43606</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>RESOURCE!E19</f>
+        <v>item/purchase_assign.html</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f>E18</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L21" s="8">
+        <v>40</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="9">
+        <v>43608</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>RESOURCE!E20</f>
+        <v>item/item_allocate.html</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="8" t="str">
+        <f>E18</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L22" s="8">
+        <v>50</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="9">
+        <v>43608</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>925</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>RESOURCE!E21</f>
+        <v>item/item_stock.html</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f>E18</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L23" s="8">
+        <v>60</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="9">
+        <v>43608</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>935</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>RESOURCE!E22</f>
+        <v>item/item_register.html</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="K24" s="8" t="str">
+        <f>E18</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L24" s="8">
+        <v>70</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="D25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9">
+    <row r="26" spans="1:17">
+      <c r="A26" s="9">
         <v>43187</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="E18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="47" t="str">
+      <c r="C26" s="35"/>
+      <c r="E26" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="47" t="str">
         <f>E10</f>
         <v>REC1010</v>
       </c>
-      <c r="G18" s="47" t="str">
+      <c r="G26" s="47" t="str">
         <f>RESOURCE!E8</f>
         <v>cashflow/transaction.html</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9">
+    <row r="27" spans="1:17">
+      <c r="A27" s="9">
         <v>43187</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="E19" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="F19" s="47" t="str">
+      <c r="C27" s="35"/>
+      <c r="E27" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27" s="47" t="str">
         <f>E12</f>
         <v>FND1030</v>
       </c>
-      <c r="G19" s="47" t="str">
+      <c r="G27" s="47" t="str">
         <f>RESOURCE!E9</f>
         <v>fnd/company_limit.html</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="E20" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F20" s="47" t="str">
+    <row r="28" spans="1:17">
+      <c r="E28" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F28" s="47" t="str">
         <f>E14</f>
         <v>FIN1020</v>
       </c>
-      <c r="G20" s="47" t="str">
+      <c r="G28" s="47" t="str">
         <f>RESOURCE!E10</f>
         <v>finance/periods.html</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="E21" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="47" t="str">
+    <row r="29" spans="1:17">
+      <c r="E29" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="47" t="str">
         <f>E15</f>
         <v>FIN1030</v>
       </c>
-      <c r="G21" s="47" t="str">
+      <c r="G29" s="47" t="str">
         <f>RESOURCE!E11</f>
         <v>finance/periods_sets.html</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="E22" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="47" t="str">
+    <row r="30" spans="1:17">
+      <c r="E30" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="47" t="str">
         <f>E16</f>
         <v>FND1040</v>
       </c>
-      <c r="G22" s="47" t="str">
+      <c r="G30" s="47" t="str">
         <f>RESOURCE!E12</f>
         <v>fnd/notice.html</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="E31" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="47" t="str">
+        <f>E17</f>
+        <v>FND1050</v>
+      </c>
+      <c r="G31" s="47" t="str">
+        <f>RESOURCE!E14</f>
+        <v>fnd/notice_query.html</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="E32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="47" t="str">
+        <f>E19</f>
+        <v>ITEM1020</v>
+      </c>
+      <c r="G32" s="47" t="str">
+        <f>RESOURCE!E17</f>
+        <v>item/warehouse.html</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="47" t="str">
+        <f>E20</f>
+        <v>ITEM1030</v>
+      </c>
+      <c r="G33" s="47" t="str">
+        <f>RESOURCE!E18</f>
+        <v>item/purchase.html</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="47" t="str">
+        <f>E21</f>
+        <v>ITEM1040</v>
+      </c>
+      <c r="G34" s="47" t="str">
+        <f>RESOURCE!E19</f>
+        <v>item/purchase_assign.html</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="47" t="str">
+        <f t="shared" ref="F35:F37" si="0">E22</f>
+        <v>ITEM1050</v>
+      </c>
+      <c r="G35" s="47" t="str">
+        <f>RESOURCE!E20</f>
+        <v>item/item_allocate.html</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>ITEM1060</v>
+      </c>
+      <c r="G36" s="47" t="str">
+        <f>RESOURCE!E21</f>
+        <v>item/item_stock.html</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>ITEM1070</v>
+      </c>
+      <c r="G37" s="47" t="str">
+        <f>RESOURCE!E22</f>
+        <v>item/item_register.html</v>
       </c>
     </row>
   </sheetData>
@@ -6821,10 +9191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6969,6 +9339,97 @@
         <v>FND1040</v>
       </c>
     </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="F15" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G15" s="47" t="str">
+        <f>FUNCTION!E17</f>
+        <v>FND1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="F16" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G16" s="47" t="str">
+        <f>FUNCTION!E19</f>
+        <v>ITEM1020</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G17" s="47" t="str">
+        <f>FUNCTION!E20</f>
+        <v>ITEM1030</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G18" s="47" t="str">
+        <f>FUNCTION!E21</f>
+        <v>ITEM1040</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G19" s="47" t="str">
+        <f>FUNCTION!E22</f>
+        <v>ITEM1050</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G20" s="47" t="str">
+        <f>FUNCTION!E23</f>
+        <v>ITEM1060</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G21" s="47" t="str">
+        <f>FUNCTION!E24</f>
+        <v>ITEM1070</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6977,10 +9438,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B176" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView topLeftCell="B277" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7059,7 +9520,7 @@
         <v>177</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>446</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7199,7 +9660,7 @@
         <v>177</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="5:8">
@@ -7451,7 +9912,7 @@
         <v>177</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="5:8">
@@ -8789,7 +11250,7 @@
         <v>179</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>370</v>
+        <v>846</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>177</v>
@@ -8817,13 +11278,13 @@
         <v>179</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H134" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="5:8">
@@ -8831,13 +11292,13 @@
         <v>179</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="5:8">
@@ -8845,13 +11306,13 @@
         <v>179</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H136" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="5:8">
@@ -8859,13 +11320,13 @@
         <v>179</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="5:8">
@@ -8873,13 +11334,13 @@
         <v>179</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H138" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="5:8">
@@ -8887,13 +11348,13 @@
         <v>179</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="5:8">
@@ -8901,13 +11362,13 @@
         <v>179</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="5:8">
@@ -8915,13 +11376,13 @@
         <v>179</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="5:8">
@@ -8929,13 +11390,13 @@
         <v>179</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H142" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="5:8">
@@ -8943,13 +11404,13 @@
         <v>179</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="5:8">
@@ -8957,13 +11418,13 @@
         <v>179</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H144" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="5:8">
@@ -8971,13 +11432,13 @@
         <v>179</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="5:8">
@@ -8985,13 +11446,13 @@
         <v>179</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H146" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="5:8">
@@ -8999,13 +11460,13 @@
         <v>179</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="5:8">
@@ -9013,13 +11474,13 @@
         <v>179</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H148" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="5:8">
@@ -9027,13 +11488,13 @@
         <v>179</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="5:8">
@@ -9041,13 +11502,13 @@
         <v>179</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H150" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="151" spans="5:8">
@@ -9055,13 +11516,13 @@
         <v>179</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" spans="5:8">
@@ -9069,13 +11530,13 @@
         <v>179</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H152" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="153" spans="5:8">
@@ -9083,13 +11544,13 @@
         <v>179</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="154" spans="5:8">
@@ -9097,13 +11558,13 @@
         <v>179</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="5:8">
@@ -9111,13 +11572,13 @@
         <v>179</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="156" spans="5:8">
@@ -9125,13 +11586,13 @@
         <v>179</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H156" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="157" spans="5:8">
@@ -9139,13 +11600,13 @@
         <v>179</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="5:8">
@@ -9153,13 +11614,13 @@
         <v>179</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H158" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="159" spans="5:8">
@@ -9167,13 +11628,13 @@
         <v>179</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H159" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="5:8">
@@ -9181,13 +11642,13 @@
         <v>179</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H160" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="161" spans="5:8">
@@ -9195,13 +11656,13 @@
         <v>179</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H161" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="162" spans="5:8">
@@ -9209,13 +11670,13 @@
         <v>179</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H162" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="5:8">
@@ -9223,13 +11684,13 @@
         <v>179</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G163" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H163" s="35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="5:8">
@@ -9237,13 +11698,13 @@
         <v>179</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H164" s="35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="5:8">
@@ -9251,13 +11712,13 @@
         <v>179</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H165" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="5:8">
@@ -9265,13 +11726,13 @@
         <v>179</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H166" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="5:8">
@@ -9279,13 +11740,13 @@
         <v>179</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H167" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="5:8">
@@ -9293,13 +11754,13 @@
         <v>179</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H168" s="35" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="169" spans="5:8">
@@ -9307,13 +11768,13 @@
         <v>179</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H169" s="35" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" spans="5:8">
@@ -9321,13 +11782,13 @@
         <v>179</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H170" s="35" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="171" spans="5:8">
@@ -9335,13 +11796,13 @@
         <v>179</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H171" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="5:8">
@@ -9349,13 +11810,13 @@
         <v>179</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H172" s="35" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="5:8">
@@ -9363,13 +11824,13 @@
         <v>179</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H173" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174" spans="5:8">
@@ -9377,13 +11838,13 @@
         <v>179</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H174" s="35" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="175" spans="5:8">
@@ -9391,13 +11852,13 @@
         <v>179</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H175" s="35" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="5:8">
@@ -9405,13 +11866,13 @@
         <v>179</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="177" spans="5:8">
@@ -9419,13 +11880,13 @@
         <v>179</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H177" s="35" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="5:8">
@@ -9433,13 +11894,13 @@
         <v>179</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H178" s="35" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="179" spans="5:8">
@@ -9447,13 +11908,13 @@
         <v>179</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H179" s="35" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="5:8">
@@ -9461,13 +11922,13 @@
         <v>179</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="181" spans="5:8">
@@ -9475,13 +11936,13 @@
         <v>179</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H181" s="35" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="182" spans="5:8">
@@ -9489,13 +11950,13 @@
         <v>179</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="183" spans="5:8">
@@ -9503,13 +11964,13 @@
         <v>179</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H183" s="35" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="184" spans="5:8">
@@ -9517,13 +11978,13 @@
         <v>179</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G184" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H184" s="35" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="185" spans="5:8">
@@ -9531,13 +11992,13 @@
         <v>179</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H185" s="35" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="186" spans="5:8">
@@ -9545,13 +12006,13 @@
         <v>179</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H186" s="35" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="187" spans="5:8">
@@ -9559,13 +12020,13 @@
         <v>179</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G187" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H187" s="35" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="188" spans="5:8">
@@ -9573,13 +12034,13 @@
         <v>179</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H188" s="35" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="189" spans="5:8">
@@ -9587,13 +12048,13 @@
         <v>179</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G189" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H189" s="35" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="190" spans="5:8">
@@ -9601,13 +12062,13 @@
         <v>179</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>177</v>
       </c>
       <c r="H190" s="35" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="191" spans="5:8">
@@ -9615,13 +12076,1301 @@
         <v>179</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H191" s="35" t="s">
-        <v>658</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="192" spans="5:8">
+      <c r="E192" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H192" s="35" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="193" spans="5:8">
+      <c r="E193" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H193" s="35" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="194" spans="5:8">
+      <c r="E194" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H194" s="35" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="195" spans="5:8">
+      <c r="E195" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H195" s="35" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="196" spans="5:8">
+      <c r="E196" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H196" s="35" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="197" spans="5:8">
+      <c r="E197" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H197" s="35" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="198" spans="5:8">
+      <c r="E198" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H198" s="35" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="199" spans="5:8">
+      <c r="E199" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H199" s="35" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="200" spans="5:8">
+      <c r="E200" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H200" s="35" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="201" spans="5:8">
+      <c r="E201" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H201" s="35" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="202" spans="5:8">
+      <c r="E202" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H202" s="35" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="203" spans="5:8">
+      <c r="E203" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H203" s="35" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="204" spans="5:8">
+      <c r="E204" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H204" s="35" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="205" spans="5:8">
+      <c r="E205" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H205" s="35" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="206" spans="5:8">
+      <c r="E206" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H206" s="35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="207" spans="5:8">
+      <c r="E207" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H207" s="35" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="208" spans="5:8">
+      <c r="E208" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H208" s="35" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="209" spans="5:8">
+      <c r="E209" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H209" s="35" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="210" spans="5:8">
+      <c r="E210" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H210" s="35" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="211" spans="5:8">
+      <c r="E211" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H211" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="212" spans="5:8">
+      <c r="E212" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H212" s="35" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="213" spans="5:8">
+      <c r="E213" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H213" s="35" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="214" spans="5:8">
+      <c r="E214" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H214" s="35" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="215" spans="5:8">
+      <c r="E215" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H215" s="35" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="216" spans="5:8">
+      <c r="E216" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H216" s="35" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="217" spans="5:8">
+      <c r="E217" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H217" s="35" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="218" spans="5:8">
+      <c r="E218" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H218" s="35" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="219" spans="5:8">
+      <c r="E219" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H219" s="35" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="220" spans="5:8">
+      <c r="E220" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H220" s="35" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="221" spans="5:8">
+      <c r="E221" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H221" s="35" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="222" spans="5:8">
+      <c r="E222" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H222" s="35" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8">
+      <c r="E223" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H223" s="35" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8">
+      <c r="E224" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H224" s="35" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="E225" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H225" s="35" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8">
+      <c r="E226" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H226" s="35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8">
+      <c r="E227" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H227" s="35" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="228" spans="5:8">
+      <c r="E228" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H228" s="35" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="229" spans="5:8">
+      <c r="E229" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H229" s="35" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="230" spans="5:8">
+      <c r="E230" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H230" s="35" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="231" spans="5:8">
+      <c r="E231" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H231" s="35" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="232" spans="5:8">
+      <c r="E232" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H232" s="35" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="233" spans="5:8">
+      <c r="E233" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H233" s="35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="234" spans="5:8">
+      <c r="E234" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H234" s="35" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="235" spans="5:8">
+      <c r="E235" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H235" s="35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="236" spans="5:8">
+      <c r="E236" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H236" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="237" spans="5:8">
+      <c r="E237" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H237" s="35" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="238" spans="5:8">
+      <c r="E238" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H238" s="35" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="239" spans="5:8">
+      <c r="E239" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H239" s="35" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="240" spans="5:8">
+      <c r="E240" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H240" s="35" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8">
+      <c r="E241" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H241" s="35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="242" spans="5:8">
+      <c r="E242" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F242" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H242" s="35" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="243" spans="5:8">
+      <c r="E243" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H243" s="35" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8">
+      <c r="E244" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H244" s="35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="245" spans="5:8">
+      <c r="E245" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H245" s="35" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="246" spans="5:8">
+      <c r="E246" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H246" s="35" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8">
+      <c r="E247" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H247" s="35" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="248" spans="5:8">
+      <c r="E248" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H248" s="35" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="249" spans="5:8">
+      <c r="E249" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H249" s="35" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="250" spans="5:8">
+      <c r="E250" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H250" s="35" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="251" spans="5:8">
+      <c r="E251" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H251" s="35" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="252" spans="5:8">
+      <c r="E252" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H252" s="35" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8">
+      <c r="E253" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H253" s="35" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="254" spans="5:8">
+      <c r="E254" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H254" s="35" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="255" spans="5:8">
+      <c r="E255" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H255" s="35" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="256" spans="5:8">
+      <c r="E256" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H256" s="35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="257" spans="5:8">
+      <c r="E257" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H257" s="35" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="258" spans="5:8">
+      <c r="E258" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H258" s="35" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="259" spans="5:8">
+      <c r="E259" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H259" s="35" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="260" spans="5:8">
+      <c r="E260" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H260" s="35" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="261" spans="5:8">
+      <c r="E261" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H261" s="35" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="262" spans="5:8">
+      <c r="E262" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H262" s="35" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="263" spans="5:8">
+      <c r="E263" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H263" s="35" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="264" spans="5:8">
+      <c r="E264" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H264" s="35" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="265" spans="5:8">
+      <c r="E265" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H265" s="35" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="266" spans="5:8">
+      <c r="E266" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H266" s="35" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="267" spans="5:8">
+      <c r="E267" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H267" s="35" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="268" spans="5:8">
+      <c r="E268" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H268" s="35" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="269" spans="5:8">
+      <c r="E269" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H269" s="35" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="270" spans="5:8">
+      <c r="E270" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="G270" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H270" s="35" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="271" spans="5:8">
+      <c r="E271" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F271" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H271" s="35" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="272" spans="5:8">
+      <c r="E272" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="G272" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H272" s="35" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="273" spans="5:8">
+      <c r="E273" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H273" s="35" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="274" spans="5:8">
+      <c r="E274" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H274" s="35" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="275" spans="5:8">
+      <c r="E275" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H275" s="35" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="276" spans="5:8">
+      <c r="E276" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H276" s="35" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="277" spans="5:8">
+      <c r="E277" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H277" s="35" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="278" spans="5:8">
+      <c r="E278" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="G278" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H278" s="35" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="279" spans="5:8">
+      <c r="E279" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H279" s="35" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="280" spans="5:8">
+      <c r="E280" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F280" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G280" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H280" s="35" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="281" spans="5:8">
+      <c r="E281" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F281" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H281" s="35" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="282" spans="5:8">
+      <c r="E282" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F282" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H282" s="35" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="283" spans="5:8">
+      <c r="E283" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F283" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H283" s="35" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -9634,10 +13383,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9720,138 +13469,105 @@
     <row r="9" spans="1:11">
       <c r="A9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>574</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>575</v>
       </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="9"/>
       <c r="E11" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>579</v>
-      </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="E12" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="E13" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f>E$8</f>
-        <v>COMPANYLIMIT.LIMIT_TYPE</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="E14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="10" t="str">
-        <f t="shared" ref="F14" si="0">E$8</f>
-        <v>COMPANYLIMIT.LIMIT_TYPE</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="E15" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="10" t="str">
-        <f>E$8</f>
-        <v>COMPANYLIMIT.LIMIT_TYPE</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9859,23 +13575,23 @@
         <v>275</v>
       </c>
       <c r="F16" s="10" t="str">
-        <f>E$9</f>
-        <v>PERIODS.STATUS</v>
+        <f>E$8</f>
+        <v>COMPANYLIMIT.LIMIT_TYPE</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>568</v>
+        <v>279</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>570</v>
+        <v>281</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>572</v>
+        <v>283</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>570</v>
+        <v>281</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>572</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -9883,23 +13599,23 @@
         <v>275</v>
       </c>
       <c r="F17" s="10" t="str">
-        <f>E$9</f>
-        <v>PERIODS.STATUS</v>
+        <f t="shared" ref="F17" si="0">E$8</f>
+        <v>COMPANYLIMIT.LIMIT_TYPE</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>569</v>
+        <v>278</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>571</v>
+        <v>280</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>573</v>
+        <v>284</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>571</v>
+        <v>280</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>573</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -9907,23 +13623,23 @@
         <v>275</v>
       </c>
       <c r="F18" s="10" t="str">
-        <f>$E10</f>
-        <v>NOTICE.STATUS</v>
+        <f>E$8</f>
+        <v>COMPANYLIMIT.LIMIT_TYPE</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>587</v>
+        <v>282</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>594</v>
+        <v>285</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>587</v>
+        <v>282</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>594</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -9931,23 +13647,23 @@
         <v>275</v>
       </c>
       <c r="F19" s="10" t="str">
-        <f>$E10</f>
-        <v>NOTICE.STATUS</v>
+        <f>E$9</f>
+        <v>PERIODS.STATUS</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="5:11">
@@ -9955,23 +13671,23 @@
         <v>275</v>
       </c>
       <c r="F20" s="10" t="str">
-        <f>$E10</f>
-        <v>NOTICE.STATUS</v>
+        <f>E$9</f>
+        <v>PERIODS.STATUS</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="5:11">
@@ -9979,23 +13695,23 @@
         <v>275</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f>$E11</f>
-        <v>NOTICE.NOTICE_TYPE</v>
+        <f>$E10</f>
+        <v>NOTICE.STATUS</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="5:11">
@@ -10003,23 +13719,23 @@
         <v>275</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f>$E11</f>
-        <v>NOTICE.NOTICE_TYPE</v>
+        <f>$E10</f>
+        <v>NOTICE.STATUS</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>283</v>
+        <v>594</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>283</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -10027,23 +13743,23 @@
         <v>275</v>
       </c>
       <c r="F23" s="10" t="str">
-        <f>$E11</f>
-        <v>NOTICE.NOTICE_TYPE</v>
+        <f>$E10</f>
+        <v>NOTICE.STATUS</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="5:11">
@@ -10055,19 +13771,331 @@
         <v>NOTICE.NOTICE_TYPE</v>
       </c>
       <c r="G24" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f>$E11</f>
+        <v>NOTICE.NOTICE_TYPE</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f>$E11</f>
+        <v>NOTICE.NOTICE_TYPE</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H26" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f>$E11</f>
+        <v>NOTICE.NOTICE_TYPE</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f>$E12</f>
+        <v>PURCHASE.STATUS</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f>$E12</f>
+        <v>PURCHASE.STATUS</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>832</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>842</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f>$E12</f>
+        <v>PURCHASE.STATUS</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f>$E12</f>
+        <v>PURCHASE.STATUS</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f>$E12</f>
+        <v>PURCHASE.STATUS</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>840</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>840</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f>$E13</f>
+        <v>ALLOCATE.STATUS</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="I33" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="I24" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="J24" s="35" t="s">
+      <c r="J33" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="K33" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="K24" s="35" t="s">
-        <v>599</v>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f>$E13</f>
+        <v>ALLOCATE.STATUS</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11">
+      <c r="E35" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f>$E13</f>
+        <v>ALLOCATE.STATUS</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11">
+      <c r="E36" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f>$E14</f>
+        <v>STOCK.TYPE</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11">
+      <c r="E37" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f>$E14</f>
+        <v>STOCK.TYPE</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -10079,10 +14107,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10196,82 +14224,687 @@
       </c>
       <c r="S7" s="38"/>
     </row>
-    <row r="8" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="L8">
+        <v>550</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>691</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L9">
+        <v>550</v>
+      </c>
+      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="L10">
+        <v>550</v>
+      </c>
+      <c r="M10">
+        <v>300</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L11">
+        <v>550</v>
+      </c>
+      <c r="M11">
+        <v>300</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A12" s="9">
         <v>43189</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="38" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F12" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G12" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H12" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I12" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J12" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K12" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L12" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M12" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P12" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q12" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R12" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U12" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V12" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X12" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y12" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Z12" s="38" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="47" t="str">
+        <f>E8</f>
+        <v>LOV_ACCOUNT</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y13" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z13" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="E14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="47" t="str">
+        <f>E8</f>
+        <v>LOV_ACCOUNT</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z14" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="E15" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="47" t="str">
+        <f>E8</f>
+        <v>LOV_ACCOUNT</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>80</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z15" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="E16" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="47" t="str">
+        <f>E8</f>
+        <v>LOV_ACCOUNT</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>80</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z16" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="5:26">
+      <c r="E17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="47" t="str">
+        <f>E8</f>
+        <v>LOV_ACCOUNT</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>80</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y17" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z17" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="5:26">
+      <c r="E18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="47" t="str">
+        <f>E9</f>
+        <v>LOV_ORDER</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z18" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="5:26">
+      <c r="E19" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="47" t="str">
+        <f>E9</f>
+        <v>LOV_ORDER</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>80</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y19" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z19" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="5:26">
+      <c r="E20" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="47" t="str">
+        <f>E9</f>
+        <v>LOV_ORDER</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>80</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z20" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="5:26">
+      <c r="E21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="47" t="str">
+        <f>E10</f>
+        <v>LOV_WAREHOUSE</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>913</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>915</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>80</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z21" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="5:26">
+      <c r="E22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="47" t="str">
+        <f>E10</f>
+        <v>LOV_WAREHOUSE</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>916</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>80</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z22" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="5:26">
+      <c r="E23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="47" t="str">
+        <f>E11</f>
+        <v>LOV_ITEM</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>80</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y23" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z23" s="35" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -10283,10 +14916,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10360,47 +14993,250 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>824</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="D11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G11" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I11" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="47" t="str">
+        <f>E8</f>
+        <v>TRANSACTIONNUM</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="47" t="str">
+        <f>E9</f>
+        <v>PURCHASE</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="47" t="str">
+        <f>E9</f>
+        <v>PURCHASE</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="47" t="str">
+        <f>E9</f>
+        <v>PURCHASE</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="47" t="str">
+        <f>E10</f>
+        <v>ALLOCATE</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="47" t="str">
+        <f>E10</f>
+        <v>ALLOCATE</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="47" t="str">
+        <f>E10</f>
+        <v>ALLOCATE</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/20190430-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/20190430-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1094">
   <si>
     <r>
       <rPr>
@@ -6128,6 +6128,285 @@
   </si>
   <si>
     <t>item/item_register.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM.STATUS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM.STATUS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>展销</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saling</t>
+  </si>
+  <si>
+    <t>销售中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saling</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PENDING</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂挂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析页</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys/homepage.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页配置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homepage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页配置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMEPAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-space-shuttle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页配置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homepage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-gears</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.homepage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.homepage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.companyid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.companyid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.roleid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.userid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.homepath</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.remakr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.enabledflag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage.enabledflag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home page</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Path</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remakr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标志</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys/homepage.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMEPAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMEPAGE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7492,10 +7771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8020,6 +8299,64 @@
         <v>930</v>
       </c>
     </row>
+    <row r="23" spans="5:13">
+      <c r="E23" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A7:M7"/>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -8030,10 +8367,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8999,187 +9336,300 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="D25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>74</v>
+      <c r="A25" s="9">
+        <v>43615</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8">
+        <v>99</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="9">
+        <v>43615</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>RESOURCE!E24</f>
+        <v>sys/homepage.html</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K26" s="8" t="str">
+        <f>E25</f>
+        <v>SYSTEM</v>
+      </c>
+      <c r="L26" s="8">
+        <v>16</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="9">
         <v>43187</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="E26" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="47" t="str">
+      <c r="C28" s="35"/>
+      <c r="E28" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="47" t="str">
         <f>E10</f>
         <v>REC1010</v>
       </c>
-      <c r="G26" s="47" t="str">
+      <c r="G28" s="47" t="str">
         <f>RESOURCE!E8</f>
         <v>cashflow/transaction.html</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="9">
+    <row r="29" spans="1:17">
+      <c r="A29" s="9">
         <v>43187</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="E27" s="10" t="s">
+      <c r="C29" s="35"/>
+      <c r="E29" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="47" t="str">
+      <c r="F29" s="47" t="str">
         <f>E12</f>
         <v>FND1030</v>
       </c>
-      <c r="G27" s="47" t="str">
+      <c r="G29" s="47" t="str">
         <f>RESOURCE!E9</f>
         <v>fnd/company_limit.html</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="E28" s="10" t="s">
+    <row r="30" spans="1:17">
+      <c r="E30" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="F28" s="47" t="str">
+      <c r="F30" s="47" t="str">
         <f>E14</f>
         <v>FIN1020</v>
       </c>
-      <c r="G28" s="47" t="str">
+      <c r="G30" s="47" t="str">
         <f>RESOURCE!E10</f>
         <v>finance/periods.html</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="E29" s="10" t="s">
+    <row r="31" spans="1:17">
+      <c r="E31" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="F29" s="47" t="str">
+      <c r="F31" s="47" t="str">
         <f>E15</f>
         <v>FIN1030</v>
       </c>
-      <c r="G29" s="47" t="str">
+      <c r="G31" s="47" t="str">
         <f>RESOURCE!E11</f>
         <v>finance/periods_sets.html</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="E30" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="47" t="str">
+    <row r="32" spans="1:17">
+      <c r="E32" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="47" t="str">
         <f>E16</f>
         <v>FND1040</v>
       </c>
-      <c r="G30" s="47" t="str">
+      <c r="G32" s="47" t="str">
         <f>RESOURCE!E12</f>
         <v>fnd/notice.html</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="E31" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="47" t="str">
+    <row r="33" spans="5:7">
+      <c r="E33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="47" t="str">
         <f>E17</f>
         <v>FND1050</v>
       </c>
-      <c r="G31" s="47" t="str">
+      <c r="G33" s="47" t="str">
         <f>RESOURCE!E14</f>
         <v>fnd/notice_query.html</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="E32" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="47" t="str">
+    <row r="34" spans="5:7">
+      <c r="E34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="47" t="str">
         <f>E19</f>
         <v>ITEM1020</v>
       </c>
-      <c r="G32" s="47" t="str">
+      <c r="G34" s="47" t="str">
         <f>RESOURCE!E17</f>
         <v>item/warehouse.html</v>
       </c>
     </row>
-    <row r="33" spans="5:7">
-      <c r="E33" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="47" t="str">
+    <row r="35" spans="5:7">
+      <c r="E35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="47" t="str">
         <f>E20</f>
         <v>ITEM1030</v>
       </c>
-      <c r="G33" s="47" t="str">
+      <c r="G35" s="47" t="str">
         <f>RESOURCE!E18</f>
         <v>item/purchase.html</v>
       </c>
     </row>
-    <row r="34" spans="5:7">
-      <c r="E34" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="47" t="str">
+    <row r="36" spans="5:7">
+      <c r="E36" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="47" t="str">
         <f>E21</f>
         <v>ITEM1040</v>
       </c>
-      <c r="G34" s="47" t="str">
+      <c r="G36" s="47" t="str">
         <f>RESOURCE!E19</f>
         <v>item/purchase_assign.html</v>
       </c>
     </row>
-    <row r="35" spans="5:7">
-      <c r="E35" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="47" t="str">
-        <f t="shared" ref="F35:F37" si="0">E22</f>
+    <row r="37" spans="5:7">
+      <c r="E37" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="47" t="str">
+        <f t="shared" ref="F37:F39" si="0">E22</f>
         <v>ITEM1050</v>
       </c>
-      <c r="G35" s="47" t="str">
+      <c r="G37" s="47" t="str">
         <f>RESOURCE!E20</f>
         <v>item/item_allocate.html</v>
       </c>
     </row>
-    <row r="36" spans="5:7">
-      <c r="E36" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="47" t="str">
+    <row r="38" spans="5:7">
+      <c r="E38" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ITEM1060</v>
       </c>
-      <c r="G36" s="47" t="str">
+      <c r="G38" s="47" t="str">
         <f>RESOURCE!E21</f>
         <v>item/item_stock.html</v>
       </c>
     </row>
-    <row r="37" spans="5:7">
-      <c r="E37" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="47" t="str">
+    <row r="39" spans="5:7">
+      <c r="E39" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ITEM1070</v>
       </c>
-      <c r="G37" s="47" t="str">
+      <c r="G39" s="47" t="str">
         <f>RESOURCE!E22</f>
         <v>item/item_register.html</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="47" t="str">
+        <f>E26</f>
+        <v>HOMEPAGE</v>
+      </c>
+      <c r="G40" s="47" t="str">
+        <f>RESOURCE!E24</f>
+        <v>sys/homepage.html</v>
       </c>
     </row>
   </sheetData>
@@ -9191,10 +9641,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9430,6 +9880,19 @@
         <v>ITEM1070</v>
       </c>
     </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="47" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G22" s="47" t="str">
+        <f>FUNCTION!E26</f>
+        <v>HOMEPAGE</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9438,10 +9901,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView topLeftCell="B277" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F263" sqref="F263"/>
+    <sheetView topLeftCell="B282" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E283" sqref="E283:E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13373,6 +13836,202 @@
         <v>984</v>
       </c>
     </row>
+    <row r="284" spans="5:8">
+      <c r="E284" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F284" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H284" s="35" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="285" spans="5:8">
+      <c r="E285" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H285" s="35" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="286" spans="5:8">
+      <c r="E286" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H286" s="35" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="287" spans="5:8">
+      <c r="E287" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H287" s="35" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="288" spans="5:8">
+      <c r="E288" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F288" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G288" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H288" s="35" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="289" spans="5:8">
+      <c r="E289" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H289" s="35" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="290" spans="5:8">
+      <c r="E290" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H290" s="35" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="291" spans="5:8">
+      <c r="E291" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H291" s="35" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="292" spans="5:8">
+      <c r="E292" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F292" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G292" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H292" s="35" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="293" spans="5:8">
+      <c r="E293" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F293" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H293" s="35" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="294" spans="5:8">
+      <c r="E294" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H294" s="35" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="295" spans="5:8">
+      <c r="E295" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H295" s="35" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="296" spans="5:8">
+      <c r="E296" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F296" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G296" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H296" s="35" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8">
+      <c r="E297" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H297" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="G1:G7"/>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -13383,10 +14042,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13545,53 +14204,42 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="E16" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="10" t="str">
-        <f>E$8</f>
-        <v>COMPANYLIMIT.LIMIT_TYPE</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="5:11">
@@ -13599,23 +14247,23 @@
         <v>275</v>
       </c>
       <c r="F17" s="10" t="str">
-        <f t="shared" ref="F17" si="0">E$8</f>
+        <f>E$8</f>
         <v>COMPANYLIMIT.LIMIT_TYPE</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="5:11">
@@ -13623,23 +14271,23 @@
         <v>275</v>
       </c>
       <c r="F18" s="10" t="str">
-        <f>E$8</f>
+        <f t="shared" ref="F18" si="0">E$8</f>
         <v>COMPANYLIMIT.LIMIT_TYPE</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="5:11">
@@ -13647,23 +14295,23 @@
         <v>275</v>
       </c>
       <c r="F19" s="10" t="str">
-        <f>E$9</f>
-        <v>PERIODS.STATUS</v>
+        <f>E$8</f>
+        <v>COMPANYLIMIT.LIMIT_TYPE</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>567</v>
+        <v>277</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>571</v>
+        <v>285</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>571</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="5:11">
@@ -13675,19 +14323,19 @@
         <v>PERIODS.STATUS</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="5:11">
@@ -13695,23 +14343,23 @@
         <v>275</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f>$E10</f>
-        <v>NOTICE.STATUS</v>
+        <f>E$9</f>
+        <v>PERIODS.STATUS</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="5:11">
@@ -13723,19 +14371,19 @@
         <v>NOTICE.STATUS</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="5:11">
@@ -13747,19 +14395,19 @@
         <v>NOTICE.STATUS</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="5:11">
@@ -13767,23 +14415,23 @@
         <v>275</v>
       </c>
       <c r="F24" s="10" t="str">
-        <f>$E11</f>
-        <v>NOTICE.NOTICE_TYPE</v>
+        <f>$E10</f>
+        <v>NOTICE.STATUS</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="5:11">
@@ -13795,19 +14443,19 @@
         <v>NOTICE.NOTICE_TYPE</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>283</v>
+        <v>596</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>283</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="5:11">
@@ -13819,19 +14467,19 @@
         <v>NOTICE.NOTICE_TYPE</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>597</v>
+        <v>283</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>597</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="5:11">
@@ -13843,19 +14491,19 @@
         <v>NOTICE.NOTICE_TYPE</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="5:11">
@@ -13863,23 +14511,23 @@
         <v>275</v>
       </c>
       <c r="F28" s="10" t="str">
-        <f>$E12</f>
-        <v>PURCHASE.STATUS</v>
+        <f>$E11</f>
+        <v>NOTICE.NOTICE_TYPE</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>831</v>
+        <v>583</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>836</v>
+        <v>592</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>841</v>
+        <v>598</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>836</v>
+        <v>592</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>841</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="5:11">
@@ -13891,19 +14539,19 @@
         <v>PURCHASE.STATUS</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="5:11">
@@ -13915,19 +14563,19 @@
         <v>PURCHASE.STATUS</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="5:11">
@@ -13939,19 +14587,19 @@
         <v>PURCHASE.STATUS</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="32" spans="5:11">
@@ -13963,19 +14611,19 @@
         <v>PURCHASE.STATUS</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" spans="5:11">
@@ -13983,23 +14631,23 @@
         <v>275</v>
       </c>
       <c r="F33" s="10" t="str">
-        <f>$E13</f>
-        <v>ALLOCATE.STATUS</v>
+        <f>$E12</f>
+        <v>PURCHASE.STATUS</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>586</v>
+        <v>840</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>593</v>
+        <v>845</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>586</v>
+        <v>840</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>593</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="5:11">
@@ -14011,19 +14659,19 @@
         <v>ALLOCATE.STATUS</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>1006</v>
+        <v>831</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>1004</v>
+        <v>586</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>1004</v>
+        <v>586</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>1007</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="5:11">
@@ -14035,19 +14683,19 @@
         <v>ALLOCATE.STATUS</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="36" spans="5:11">
@@ -14055,23 +14703,23 @@
         <v>275</v>
       </c>
       <c r="F36" s="10" t="str">
-        <f>$E14</f>
-        <v>STOCK.TYPE</v>
+        <f>$E13</f>
+        <v>ALLOCATE.STATUS</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="37" spans="5:11">
@@ -14083,19 +14731,163 @@
         <v>STOCK.TYPE</v>
       </c>
       <c r="G37" s="35" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11">
+      <c r="E38" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f>$E14</f>
+        <v>STOCK.TYPE</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>1003</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>1005</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I38" s="35" t="s">
         <v>1008</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J38" s="35" t="s">
         <v>1005</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K38" s="35" t="s">
         <v>1008</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11">
+      <c r="E39" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f>$E15</f>
+        <v>ITEM.STATUS</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11">
+      <c r="E40" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f>$E15</f>
+        <v>ITEM.STATUS</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
+      <c r="E41" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f>$E15</f>
+        <v>ITEM.STATUS</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11">
+      <c r="E42" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f>$E15</f>
+        <v>ITEM.STATUS</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K42" s="35" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11">
+      <c r="E43" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f>$E15</f>
+        <v>ITEM.STATUS</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -14109,8 +14901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14916,10 +15708,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -15047,70 +15839,59 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="D12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G12" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I12" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="47" t="str">
-        <f>E8</f>
-        <v>TRANSACTIONNUM</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -15118,17 +15899,28 @@
         <v>275</v>
       </c>
       <c r="F13" s="47" t="str">
-        <f>E9</f>
-        <v>PURCHASE</v>
+        <f>E8</f>
+        <v>TRANSACTIONNUM</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>827</v>
-      </c>
-      <c r="I13">
+        <v>661</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <v>1</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -15140,13 +15932,13 @@
         <v>PURCHASE</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>827</v>
       </c>
       <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -15158,22 +15950,13 @@
         <v>PURCHASE</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>826</v>
+        <v>2</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -15181,17 +15964,26 @@
         <v>275</v>
       </c>
       <c r="F16" s="47" t="str">
-        <f>E10</f>
-        <v>ALLOCATE</v>
+        <f>E9</f>
+        <v>PURCHASE</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>1000</v>
+        <v>821</v>
       </c>
       <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
         <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="5:14">
@@ -15203,13 +15995,13 @@
         <v>ALLOCATE</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>1000</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:14">
@@ -15221,21 +16013,102 @@
         <v>ALLOCATE</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="47" t="str">
+        <f>E10</f>
+        <v>ALLOCATE</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N19" s="35" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="47" t="str">
+        <f>E11</f>
+        <v>HOMEPAGE</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="47" t="str">
+        <f>E11</f>
+        <v>HOMEPAGE</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="47" t="str">
+        <f>E11</f>
+        <v>HOMEPAGE</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="35" t="s">
         <v>826</v>
       </c>
     </row>
